--- a/figs/pix_res.xlsx
+++ b/figs/pix_res.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddb265\github_clones\dl_landscapes_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddb265\github_clones\dl_landscapes_paper\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>seabright</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>rock</t>
+  </si>
+  <si>
+    <t>ccrp</t>
+  </si>
+  <si>
+    <t>surf</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>swash</t>
+  </si>
+  <si>
+    <t>cliff</t>
+  </si>
+  <si>
+    <t>beach</t>
   </si>
 </sst>
 </file>
@@ -107,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +714,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -712,7 +731,183 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8068</v>
+      </c>
+      <c r="C20" s="1">
+        <v>24791</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>31668</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18271</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6040</v>
+      </c>
+      <c r="H20" s="1">
+        <v>852</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6828</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8907</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.93</v>
+      </c>
+      <c r="C21">
+        <v>0.85</v>
+      </c>
+      <c r="D21">
+        <v>0.95</v>
+      </c>
+      <c r="E21">
+        <v>0.47</v>
+      </c>
+      <c r="F21">
+        <v>0.93</v>
+      </c>
+      <c r="G21">
+        <v>0.94</v>
+      </c>
+      <c r="H21">
+        <v>0.42</v>
+      </c>
+      <c r="I21">
+        <v>0.84</v>
+      </c>
+      <c r="J21">
+        <v>0.35</v>
+      </c>
+      <c r="K21">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0.74</v>
+      </c>
+      <c r="C22">
+        <v>0.7</v>
+      </c>
+      <c r="D22">
+        <v>0.97</v>
+      </c>
+      <c r="E22">
+        <v>0.86</v>
+      </c>
+      <c r="F22">
+        <v>0.88</v>
+      </c>
+      <c r="G22">
+        <v>0.4</v>
+      </c>
+      <c r="H22">
+        <v>0.4</v>
+      </c>
+      <c r="I22">
+        <v>0.9</v>
+      </c>
+      <c r="J22">
+        <v>0.7</v>
+      </c>
+      <c r="K22">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0.73</v>
+      </c>
+      <c r="C23">
+        <v>0.76</v>
+      </c>
+      <c r="D23">
+        <v>0.94</v>
+      </c>
+      <c r="E23">
+        <v>0.54</v>
+      </c>
+      <c r="F23">
+        <v>0.86</v>
+      </c>
+      <c r="G23">
+        <v>0.48</v>
+      </c>
+      <c r="H23">
+        <v>0.38</v>
+      </c>
+      <c r="I23">
+        <v>0.86</v>
+      </c>
+      <c r="J23">
+        <v>0.35</v>
+      </c>
+      <c r="K23">
+        <v>0.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>